--- a/results-data/analysis/dataset/analysis - dataset - medium.xlsx
+++ b/results-data/analysis/dataset/analysis - dataset - medium.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F743F1C-B97F-45AE-8E6D-E5A51C8B8BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9282ABB-B46B-4BA9-BA90-1580665D000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset - medium " sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'dataset - medium '!$A$27:$P$368</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="32">
   <si>
     <t>Time</t>
   </si>
@@ -117,6 +120,15 @@
   </si>
   <si>
     <t>Optimum</t>
+  </si>
+  <si>
+    <t>capacity of the problem</t>
+  </si>
+  <si>
+    <t>COMPARISON ALGORITHM / TIME</t>
+  </si>
+  <si>
+    <t>COMPARISON ALGORITHM  / SOLUTION / OPTIMAL SOLUTION</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1964,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dataset - medium '!$C$302</c:f>
+              <c:f>'dataset - medium '!$C$314</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1973,7 +1985,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dataset - medium '!$B$303:$B$310</c:f>
+              <c:f>'dataset - medium '!$B$315:$B$322</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2005,7 +2017,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dataset - medium '!$C$303:$C$310</c:f>
+              <c:f>'dataset - medium '!$C$315:$C$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2302,7 +2314,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dataset - medium '!$C$327</c:f>
+              <c:f>'dataset - medium '!$C$345</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2342,7 +2354,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'dataset - medium '!$B$328:$B$336</c:f>
+              <c:f>'dataset - medium '!$B$346:$B$354</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2377,7 +2389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dataset - medium '!$C$328:$C$336</c:f>
+              <c:f>'dataset - medium '!$C$346:$C$354</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5229,7 +5241,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dataset - medium '!$D$154:$D$156</c:f>
+              <c:f>'dataset - medium '!$D$156:$D$158</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5302,7 +5314,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dataset - medium '!$B$154:$B$156</c:f>
+              <c:f>'dataset - medium '!$B$156:$B$158</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5375,7 +5387,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dataset - medium '!$C$154:$C$156</c:f>
+              <c:f>'dataset - medium '!$C$156:$C$158</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -14578,15 +14590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1176131</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
+      <xdr:colOff>716690</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>14617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1995282</xdr:colOff>
-      <xdr:row>294</xdr:row>
-      <xdr:rowOff>48547</xdr:rowOff>
+      <xdr:colOff>1535841</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>104577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14618,16 +14630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>35242</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>82867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>318</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14654,16 +14666,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>995361</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>184784</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>41909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>347</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14716,8 +14728,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}" name="Tableau2911131517" displayName="Tableau2911131517" ref="C153:E156" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="C153:E156" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}" name="Tableau2911131517" displayName="Tableau2911131517" ref="C155:E158" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="C155:E158" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{37F5D141-3361-48AB-8D60-B8066322E04F}" name="max" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{5EE5423B-437C-4820-9DF4-DEE5F6EFDAE2}" name="average" dataDxfId="31"/>
@@ -14728,8 +14740,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}" name="Tableau11012141618" displayName="Tableau11012141618" ref="I153:K156" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="I153:K156" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}" name="Tableau11012141618" displayName="Tableau11012141618" ref="I155:K158" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="I155:K158" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{54899AD9-A129-4289-B3BF-47F37C8225C2}" name="min"/>
     <tableColumn id="2" xr3:uid="{9F1792BC-2CF6-4CE3-8256-BDCBB2A641B5}" name="max"/>
@@ -14848,8 +14860,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{454565FE-97D2-4852-A152-CCD7F8AF6C32}" name="Tableau4" displayName="Tableau4" ref="B302:C310" totalsRowShown="0">
-  <autoFilter ref="B302:C310" xr:uid="{454565FE-97D2-4852-A152-CCD7F8AF6C32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{454565FE-97D2-4852-A152-CCD7F8AF6C32}" name="Tableau4" displayName="Tableau4" ref="B314:C322" totalsRowShown="0">
+  <autoFilter ref="B314:C322" xr:uid="{454565FE-97D2-4852-A152-CCD7F8AF6C32}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BCD4151D-850A-436A-A5A2-3497B5B0F847}" name="algo"/>
     <tableColumn id="2" xr3:uid="{9434F499-788F-4727-A5A2-0443D58551F2}" name="average" dataDxfId="2"/>
@@ -14859,8 +14871,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DB457DBD-E856-48B9-9649-4A37A2D3674E}" name="Tableau5" displayName="Tableau5" ref="B327:C336" totalsRowShown="0">
-  <autoFilter ref="B327:C336" xr:uid="{DB457DBD-E856-48B9-9649-4A37A2D3674E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DB457DBD-E856-48B9-9649-4A37A2D3674E}" name="Tableau5" displayName="Tableau5" ref="B345:C354" totalsRowShown="0">
+  <autoFilter ref="B345:C354" xr:uid="{DB457DBD-E856-48B9-9649-4A37A2D3674E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B5BDBBDF-98E6-46E4-B0B5-21D5419076F8}" name="Algo" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{1564295C-965E-49CD-9F44-9B5365E9C1F4}" name="solution" dataDxfId="0"/>
@@ -15274,10 +15286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O336"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:O354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15407,12 +15422,12 @@
         <v>9.31E-5</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>8</v>
       </c>
@@ -15425,8 +15440,12 @@
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -15437,8 +15456,12 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -15449,8 +15472,12 @@
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>0</v>
       </c>
@@ -15619,6 +15646,10 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
@@ -15631,6 +15662,10 @@
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
@@ -15643,6 +15678,10 @@
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
@@ -15813,6 +15852,10 @@
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
@@ -15825,6 +15868,10 @@
       <c r="I90" s="19"/>
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="19"/>
@@ -15837,6 +15884,10 @@
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="20" t="s">
@@ -16007,6 +16058,10 @@
       <c r="I118" s="19"/>
       <c r="J118" s="19"/>
       <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
@@ -16019,6 +16074,10 @@
       <c r="I119" s="19"/>
       <c r="J119" s="19"/>
       <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
@@ -16031,6 +16090,10 @@
       <c r="I120" s="19"/>
       <c r="J120" s="19"/>
       <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122" s="20" t="s">
@@ -16201,6 +16264,10 @@
       <c r="I148" s="19"/>
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B149" s="19"/>
@@ -16213,6 +16280,10 @@
       <c r="I149" s="19"/>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
@@ -16225,164 +16296,168 @@
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B152" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="I152" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-    </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B153" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K153" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M153" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N153" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B154" s="10">
-        <v>0.28623509407043402</v>
-      </c>
-      <c r="C154" s="11">
-        <v>0.59891247749328602</v>
-      </c>
-      <c r="D154" s="11">
-        <v>0.43862853050231898</v>
-      </c>
-      <c r="E154" s="3">
-        <v>995</v>
-      </c>
-      <c r="G154" s="1">
-        <v>100</v>
-      </c>
-      <c r="I154" s="15">
-        <v>5.1339999999999997E-3</v>
-      </c>
-      <c r="J154" s="15">
-        <v>8.0520000000000001E-3</v>
-      </c>
-      <c r="K154" s="15">
-        <v>5.4698999999999998E-3</v>
-      </c>
-      <c r="M154" s="13">
-        <v>1829</v>
-      </c>
-      <c r="N154" s="13">
-        <v>9147</v>
-      </c>
-      <c r="O154" s="13">
-        <f>N154-M154</f>
-        <v>7318</v>
-      </c>
+      <c r="B154" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="I154" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B155" s="12">
-        <v>0.54551911354064897</v>
-      </c>
-      <c r="C155" s="11">
-        <v>0.66044425964355402</v>
-      </c>
-      <c r="D155" s="11">
-        <v>0.58974308967590305</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1008</v>
-      </c>
-      <c r="G155">
-        <v>200</v>
-      </c>
-      <c r="I155" s="15">
-        <v>7.8219999999999904E-3</v>
-      </c>
-      <c r="J155" s="15">
-        <v>1.17E-2</v>
-      </c>
-      <c r="K155" s="15">
-        <v>8.2847999999999897E-3</v>
-      </c>
-      <c r="M155" s="13">
-        <v>4500</v>
-      </c>
-      <c r="N155" s="13">
-        <v>11238</v>
-      </c>
-      <c r="O155" s="13">
-        <f t="shared" ref="O155:O156" si="4">N155-M155</f>
-        <v>6738</v>
+      <c r="B155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M155" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N155" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B156" s="10">
+        <v>0.28623509407043402</v>
+      </c>
+      <c r="C156" s="11">
+        <v>0.59891247749328602</v>
+      </c>
+      <c r="D156" s="11">
+        <v>0.43862853050231898</v>
+      </c>
+      <c r="E156" s="3">
+        <v>995</v>
+      </c>
+      <c r="G156" s="1">
+        <v>100</v>
+      </c>
+      <c r="I156" s="15">
+        <v>5.1339999999999997E-3</v>
+      </c>
+      <c r="J156" s="15">
+        <v>8.0520000000000001E-3</v>
+      </c>
+      <c r="K156" s="15">
+        <v>5.4698999999999998E-3</v>
+      </c>
+      <c r="M156" s="13">
+        <v>1829</v>
+      </c>
+      <c r="N156" s="13">
+        <v>9147</v>
+      </c>
+      <c r="O156" s="13">
+        <f>N156-M156</f>
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B157" s="12">
+        <v>0.54551911354064897</v>
+      </c>
+      <c r="C157" s="11">
+        <v>0.66044425964355402</v>
+      </c>
+      <c r="D157" s="11">
+        <v>0.58974308967590305</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1008</v>
+      </c>
+      <c r="G157" s="1">
+        <v>200</v>
+      </c>
+      <c r="I157" s="15">
+        <v>7.8219999999999904E-3</v>
+      </c>
+      <c r="J157" s="15">
+        <v>1.17E-2</v>
+      </c>
+      <c r="K157" s="15">
+        <v>8.2847999999999897E-3</v>
+      </c>
+      <c r="M157" s="13">
+        <v>4500</v>
+      </c>
+      <c r="N157" s="13">
+        <v>11238</v>
+      </c>
+      <c r="O157" s="13">
+        <f>N157-M157</f>
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B158" s="10">
         <v>6.7386291027069003</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C158" s="11">
         <v>9.1304512023925692</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D158" s="11">
         <v>7.5179193973541203</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E158" s="3">
         <v>2543</v>
       </c>
-      <c r="G156">
+      <c r="G158" s="1">
         <v>500</v>
       </c>
-      <c r="I156" s="15">
+      <c r="I158" s="15">
         <v>7.9959999999999996E-3</v>
       </c>
-      <c r="J156" s="15">
+      <c r="J158" s="15">
         <v>1.1812E-2</v>
       </c>
-      <c r="K156" s="15">
+      <c r="K158" s="15">
         <v>8.4160999999999993E-3</v>
       </c>
-      <c r="M156" s="13">
+      <c r="M158" s="13">
         <v>28890</v>
       </c>
-      <c r="N156" s="13">
+      <c r="N158" s="13">
         <v>28857</v>
       </c>
-      <c r="O156" s="13">
-        <f t="shared" si="4"/>
+      <c r="O158" s="13">
+        <f>N158-M158</f>
         <v>-33</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177" s="19" t="s">
         <v>13</v>
       </c>
@@ -16395,8 +16470,12 @@
       <c r="I177" s="19"/>
       <c r="J177" s="19"/>
       <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="19"/>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
@@ -16407,8 +16486,12 @@
       <c r="I178" s="19"/>
       <c r="J178" s="19"/>
       <c r="K178" s="19"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="19"/>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
@@ -16419,8 +16502,12 @@
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B181" s="20" t="s">
         <v>0</v>
       </c>
@@ -16436,7 +16523,7 @@
       <c r="J181" s="20"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>2</v>
       </c>
@@ -16462,7 +16549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B183" s="5">
         <v>8.9743137359619106E-3</v>
       </c>
@@ -16488,7 +16575,7 @@
         <v>5.0565200000000001E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B184" s="6">
         <v>8.97574424743652E-3</v>
       </c>
@@ -16514,7 +16601,7 @@
         <v>5.4088799999999996E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B185" s="5">
         <v>7.3522028923034597</v>
       </c>
@@ -16537,7 +16624,7 @@
         <v>5.5888999999999999E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B206" s="19" t="s">
         <v>14</v>
       </c>
@@ -16550,8 +16637,12 @@
       <c r="I206" s="19"/>
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
+      <c r="L206" s="19"/>
+      <c r="M206" s="19"/>
+      <c r="N206" s="19"/>
+      <c r="O206" s="19"/>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
       <c r="D207" s="19"/>
@@ -16562,8 +16653,12 @@
       <c r="I207" s="19"/>
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="19"/>
+      <c r="N207" s="19"/>
+      <c r="O207" s="19"/>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
       <c r="D208" s="19"/>
@@ -16574,6 +16669,10 @@
       <c r="I208" s="19"/>
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="19"/>
+      <c r="N208" s="19"/>
+      <c r="O208" s="19"/>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="20" t="s">
@@ -16691,7 +16790,7 @@
         <v>11238</v>
       </c>
       <c r="O213" s="13">
-        <f t="shared" ref="O213:O214" si="5">N213-M213</f>
+        <f t="shared" ref="O213:O214" si="4">N213-M213</f>
         <v>6694</v>
       </c>
     </row>
@@ -16727,11 +16826,11 @@
         <v>28857</v>
       </c>
       <c r="O214" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18905</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B236" s="19" t="s">
         <v>15</v>
       </c>
@@ -16744,8 +16843,12 @@
       <c r="I236" s="19"/>
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
+      <c r="L236" s="19"/>
+      <c r="M236" s="19"/>
+      <c r="N236" s="19"/>
+      <c r="O236" s="19"/>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
       <c r="D237" s="19"/>
@@ -16756,8 +16859,12 @@
       <c r="I237" s="19"/>
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
+      <c r="L237" s="19"/>
+      <c r="M237" s="19"/>
+      <c r="N237" s="19"/>
+      <c r="O237" s="19"/>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
       <c r="D238" s="19"/>
@@ -16768,8 +16875,12 @@
       <c r="I238" s="19"/>
       <c r="J238" s="19"/>
       <c r="K238" s="19"/>
+      <c r="L238" s="19"/>
+      <c r="M238" s="19"/>
+      <c r="N238" s="19"/>
+      <c r="O238" s="19"/>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B240" s="20" t="s">
         <v>0</v>
       </c>
@@ -16885,7 +16996,7 @@
         <v>11238</v>
       </c>
       <c r="O243" s="13">
-        <f t="shared" ref="O243:O244" si="6">N243-M243</f>
+        <f t="shared" ref="O243:O244" si="5">N243-M243</f>
         <v>7953</v>
       </c>
     </row>
@@ -16921,7 +17032,7 @@
         <v>28857</v>
       </c>
       <c r="O244" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20921</v>
       </c>
     </row>
@@ -16938,6 +17049,10 @@
       <c r="I267" s="19"/>
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
+      <c r="L267" s="19"/>
+      <c r="M267" s="19"/>
+      <c r="N267" s="19"/>
+      <c r="O267" s="19"/>
     </row>
     <row r="268" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
@@ -16950,6 +17065,10 @@
       <c r="I268" s="19"/>
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
+      <c r="L268" s="19"/>
+      <c r="M268" s="19"/>
+      <c r="N268" s="19"/>
+      <c r="O268" s="19"/>
     </row>
     <row r="269" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
@@ -16962,6 +17081,10 @@
       <c r="I269" s="19"/>
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
+      <c r="L269" s="19"/>
+      <c r="M269" s="19"/>
+      <c r="N269" s="19"/>
+      <c r="O269" s="19"/>
     </row>
     <row r="271" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B271" s="20" t="s">
@@ -17079,7 +17202,7 @@
         <v>11238</v>
       </c>
       <c r="O274" s="13">
-        <f t="shared" ref="O274:O275" si="7">N274-M274</f>
+        <f t="shared" ref="O274:O275" si="6">N274-M274</f>
         <v>10759</v>
       </c>
     </row>
@@ -17115,207 +17238,309 @@
         <v>28857</v>
       </c>
       <c r="O275" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>27494</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C298" t="s">
-        <v>5</v>
-      </c>
+    <row r="303" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B303" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C303" s="19"/>
+      <c r="D303" s="19"/>
+      <c r="E303" s="19"/>
+      <c r="F303" s="19"/>
+      <c r="G303" s="19"/>
+      <c r="H303" s="19"/>
+      <c r="I303" s="19"/>
+      <c r="J303" s="19"/>
+      <c r="K303" s="19"/>
+      <c r="L303" s="19"/>
+      <c r="M303" s="19"/>
+      <c r="N303" s="19"/>
+      <c r="O303" s="19"/>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C299" s="16">
+    <row r="304" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B304" s="19"/>
+      <c r="C304" s="19"/>
+      <c r="D304" s="19"/>
+      <c r="E304" s="19"/>
+      <c r="F304" s="19"/>
+      <c r="G304" s="19"/>
+      <c r="H304" s="19"/>
+      <c r="I304" s="19"/>
+      <c r="J304" s="19"/>
+      <c r="K304" s="19"/>
+      <c r="L304" s="19"/>
+      <c r="M304" s="19"/>
+      <c r="N304" s="19"/>
+      <c r="O304" s="19"/>
+    </row>
+    <row r="305" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B305" s="19"/>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
+      <c r="E305" s="19"/>
+      <c r="F305" s="19"/>
+      <c r="G305" s="19"/>
+      <c r="H305" s="19"/>
+      <c r="I305" s="19"/>
+      <c r="J305" s="19"/>
+      <c r="K305" s="19"/>
+      <c r="L305" s="19"/>
+      <c r="M305" s="19"/>
+      <c r="N305" s="19"/>
+      <c r="O305" s="19"/>
+    </row>
+    <row r="310" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="311" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C311" s="16">
         <v>2543</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
+    <row r="314" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
         <v>22</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C314" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+    <row r="315" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
         <v>20</v>
       </c>
-      <c r="C303" s="17">
+      <c r="C315" s="17">
         <v>0.151593923568725</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+    <row r="316" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
         <v>21</v>
       </c>
-      <c r="C304" s="17">
+      <c r="C316" s="17">
         <v>9.9618434906005799E-4</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+    <row r="317" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
         <v>23</v>
       </c>
-      <c r="C305" s="17">
+      <c r="C317" s="17">
         <v>7.4723199844360302</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
+    <row r="318" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
         <v>24</v>
       </c>
-      <c r="C306" s="11">
+      <c r="C318" s="11">
         <v>51.060949611663801</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
+    <row r="319" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
         <v>25</v>
       </c>
-      <c r="C307" s="11">
+      <c r="C319" s="11">
         <v>7.5179193973541203</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
+    <row r="320" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
         <v>14</v>
       </c>
-      <c r="C308" s="11">
+      <c r="C320" s="11">
         <v>2.01466560363769E-2</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
+    <row r="321" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
         <v>15</v>
       </c>
-      <c r="C309" s="11">
+      <c r="C321" s="11">
         <v>2.06456184387207E-2</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
+    <row r="322" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
         <v>26</v>
       </c>
-      <c r="C310" s="11">
+      <c r="C322" s="11">
         <v>0.17892448902130101</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B327" t="s">
+    <row r="336" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B336" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" s="19"/>
+      <c r="D336" s="19"/>
+      <c r="E336" s="19"/>
+      <c r="F336" s="19"/>
+      <c r="G336" s="19"/>
+      <c r="H336" s="19"/>
+      <c r="I336" s="19"/>
+      <c r="J336" s="19"/>
+      <c r="K336" s="19"/>
+      <c r="L336" s="19"/>
+      <c r="M336" s="19"/>
+      <c r="N336" s="19"/>
+      <c r="O336" s="19"/>
+    </row>
+    <row r="337" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B337" s="19"/>
+      <c r="C337" s="19"/>
+      <c r="D337" s="19"/>
+      <c r="E337" s="19"/>
+      <c r="F337" s="19"/>
+      <c r="G337" s="19"/>
+      <c r="H337" s="19"/>
+      <c r="I337" s="19"/>
+      <c r="J337" s="19"/>
+      <c r="K337" s="19"/>
+      <c r="L337" s="19"/>
+      <c r="M337" s="19"/>
+      <c r="N337" s="19"/>
+      <c r="O337" s="19"/>
+    </row>
+    <row r="338" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B338" s="19"/>
+      <c r="C338" s="19"/>
+      <c r="D338" s="19"/>
+      <c r="E338" s="19"/>
+      <c r="F338" s="19"/>
+      <c r="G338" s="19"/>
+      <c r="H338" s="19"/>
+      <c r="I338" s="19"/>
+      <c r="J338" s="19"/>
+      <c r="K338" s="19"/>
+      <c r="L338" s="19"/>
+      <c r="M338" s="19"/>
+      <c r="N338" s="19"/>
+      <c r="O338" s="19"/>
+    </row>
+    <row r="345" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
         <v>27</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C345" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B328" s="9" t="s">
+    <row r="346" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B346" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C328" s="13">
+      <c r="C346" s="13">
         <v>1649</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B329" s="8" t="s">
+    <row r="347" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B347" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C329" s="13">
+      <c r="C347" s="13">
         <v>28916.008000000002</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B330" s="9" t="s">
+    <row r="348" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B348" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C330" s="13">
+      <c r="C348" s="13">
         <v>28857</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B331" s="8" t="s">
+    <row r="349" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B349" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C331" s="13">
+      <c r="C349" s="13">
         <v>28857</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B332" s="9" t="s">
+    <row r="350" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B350" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C332" s="13">
+      <c r="C350" s="13">
         <v>28890</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B333" s="8" t="s">
+    <row r="351" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B351" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C333" s="13">
+      <c r="C351" s="13">
         <v>9952</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B334" s="9" t="s">
+    <row r="352" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B352" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C334" s="13">
+      <c r="C352" s="13">
         <v>7936</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B335" s="18" t="s">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C335" s="13">
+      <c r="C353" s="13">
         <v>1363</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B336" s="8" t="s">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C336" s="13">
+      <c r="C354" s="13">
         <v>28857</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:K30"/>
-    <mergeCell ref="B58:K60"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="I154:K154"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="I62:K62"/>
-    <mergeCell ref="B89:K91"/>
     <mergeCell ref="B93:E93"/>
     <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B118:K120"/>
+    <mergeCell ref="B336:O338"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="I240:K240"/>
+    <mergeCell ref="B271:E271"/>
+    <mergeCell ref="I271:K271"/>
+    <mergeCell ref="B177:O179"/>
+    <mergeCell ref="B206:O208"/>
+    <mergeCell ref="B236:O238"/>
+    <mergeCell ref="B267:O269"/>
+    <mergeCell ref="B303:O305"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="I181:K181"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="I210:K210"/>
+    <mergeCell ref="B28:O30"/>
+    <mergeCell ref="B58:O60"/>
+    <mergeCell ref="B89:O91"/>
+    <mergeCell ref="B118:O120"/>
+    <mergeCell ref="B148:O150"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B148:K150"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I152:K152"/>
-    <mergeCell ref="B177:K179"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="I181:K181"/>
-    <mergeCell ref="B206:K208"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
-    <mergeCell ref="B236:K238"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="I240:K240"/>
-    <mergeCell ref="B267:K269"/>
-    <mergeCell ref="B271:E271"/>
-    <mergeCell ref="I271:K271"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="22">
     <tablePart r:id="rId3"/>

--- a/results-data/analysis/dataset/analysis - dataset - medium.xlsx
+++ b/results-data/analysis/dataset/analysis - dataset - medium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9282ABB-B46B-4BA9-BA90-1580665D000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAC082F-1704-47A1-962B-854DB37771C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="33">
   <si>
     <t>Time</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>COMPARISON ALGORITHM  / SOLUTION / OPTIMAL SOLUTION</t>
+  </si>
+  <si>
+    <t>COMPARISON ALGORITHM  /  TIME / NUMBER ITEM</t>
   </si>
 </sst>
 </file>
@@ -282,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,32 +306,25 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2595,6 +2591,1167 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algo/Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BFS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$G$34:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$D$34:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.7792167663574196E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6506791114807101E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.151593923568725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E86C-42BA-A6D6-BDB9FB75B303}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DFS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$G$64:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$D$64:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>9.9658966064453098E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.99460983276367E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9618434906005799E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E86C-42BA-A6D6-BDB9FB75B303}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Greedy Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$G$212:$G$214</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$D$212:$D$214</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.9436550140380797E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4799299240112301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.01466560363769E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E86C-42BA-A6D6-BDB9FB75B303}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Greedy Weight</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$G$242:$G$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$D$242:$D$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.8979759216308504E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2803974151611304E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.06456184387207E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E86C-42BA-A6D6-BDB9FB75B303}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Random CMCM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$G$273:$G$275</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dataset - medium '!$D$273:$D$275</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.8111400604247991E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3863182067871E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17892448902130101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E86C-42BA-A6D6-BDB9FB75B303}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="3381008"/>
+        <c:axId val="3367696"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Dynamic Programming</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$G$95:$G$97</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$D$95:$D$97</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.27320339679717998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.64319126605987498</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.4723199844360302</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E86C-42BA-A6D6-BDB9FB75B303}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>TOP DOWN</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$G$124:$G$126</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$D$124:$D$126</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.72365944385528502</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.6584871530532803</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>51.060949611663801</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-E86C-42BA-A6D6-BDB9FB75B303}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>FPTAS</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$G$156:$G$158</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$D$156:$D$158</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.43862853050231898</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.58974308967590305</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5179193973541203</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-E86C-42BA-A6D6-BDB9FB75B303}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>Genetic No Opima</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$G$182:$G$184</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dataset - medium '!$D$183:$D$185</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2.6781415939331001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.8376169204711901E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.1846083402633596</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-E86C-42BA-A6D6-BDB9FB75B303}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="3381008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> of items</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3367696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="3367696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3381008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7733,6 +8890,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10061,6 +11258,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14700,6 +16400,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1299881</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>530308</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D406B6EB-457B-456F-AFB9-CCBE221CDB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15289,10 +17027,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O354"/>
+  <dimension ref="B2:O373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15312,17 +17050,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -15428,67 +17166,67 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="I32" s="20" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="I32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -15515,10 +17253,10 @@
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -15526,13 +17264,13 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+      <c r="B34" s="5">
         <v>6.0064792633056597E-3</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="3">
         <v>1.09429359436035E-2</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="3">
         <v>7.7792167663574196E-3</v>
       </c>
       <c r="E34" s="3">
@@ -15541,34 +17279,34 @@
       <c r="G34" s="1">
         <v>100</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34">
         <v>4.9480000000000001E-3</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34">
         <v>6.41999999999999E-3</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34">
         <v>5.0952000000000002E-3</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="11">
         <v>1473</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="11">
         <v>9147</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="11">
         <f>N34-M34</f>
         <v>7674</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="10">
         <v>1.5915632247924801E-2</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="3">
         <v>1.7464160919189401E-2</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="3">
         <v>1.6506791114807101E-2</v>
       </c>
       <c r="E35" s="3">
@@ -15577,34 +17315,34 @@
       <c r="G35" s="1">
         <v>200</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35">
         <v>5.012E-3</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35">
         <v>1.6966999999999999E-2</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35">
         <v>6.6048000000000001E-3</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="11">
         <v>868</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="11">
         <v>11238</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="11">
         <f t="shared" ref="O35:O36" si="0">N35-M35</f>
         <v>10370</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+      <c r="B36" s="5">
         <v>0.112696647644042</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="3">
         <v>0.26529192924499501</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="3">
         <v>0.151593923568725</v>
       </c>
       <c r="E36" s="3">
@@ -15613,88 +17351,88 @@
       <c r="G36" s="1">
         <v>500</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36">
         <v>5.012E-3</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36">
         <v>8.4440000000000001E-3</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36">
         <v>6.5615999999999904E-3</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="11">
         <v>1649</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="11">
         <v>28857</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="11">
         <f t="shared" si="0"/>
         <v>27208</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="I62" s="20" t="s">
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="I62" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -15721,10 +17459,10 @@
       <c r="K63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M63" s="14" t="s">
+      <c r="M63" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="N63" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O63" s="1" t="s">
@@ -15732,10 +17470,10 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="10">
+      <c r="B64" s="5">
         <v>0</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="3">
         <v>9.9658966064453103E-4</v>
       </c>
       <c r="D64" s="7">
@@ -15750,31 +17488,31 @@
       <c r="I64" s="4">
         <v>7.2000000000000002E-5</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64">
         <v>1.19999999999999E-4</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64">
         <v>1.1519999999999901E-4</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="11">
         <v>9279.6450000000004</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="11">
         <v>9147</v>
       </c>
-      <c r="O64" s="13">
+      <c r="O64" s="11">
         <f>N64-M64</f>
         <v>-132.64500000000044</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+      <c r="B65" s="10">
         <v>0</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="10">
         <v>9.9802017211913997E-4</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="3">
         <v>1.99460983276367E-4</v>
       </c>
       <c r="E65" s="3">
@@ -15783,34 +17521,34 @@
       <c r="G65" s="1">
         <v>200</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65">
         <v>2.42399999999999E-3</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="11">
         <v>11391.43</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N65" s="11">
         <v>11238</v>
       </c>
-      <c r="O65" s="13">
+      <c r="O65" s="11">
         <f t="shared" ref="O65:O66" si="1">N65-M65</f>
         <v>-153.43000000000029</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+      <c r="B66" s="10">
         <v>0</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="3">
         <v>2.9911994934082001E-3</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="3">
         <v>9.9618434906005799E-4</v>
       </c>
       <c r="E66" s="3">
@@ -15819,88 +17557,88 @@
       <c r="G66" s="1">
         <v>500</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66">
         <v>2.42399999999999E-3</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="11">
         <v>28916.008000000002</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N66" s="11">
         <v>28857</v>
       </c>
-      <c r="O66" s="13">
+      <c r="O66" s="11">
         <f t="shared" si="1"/>
         <v>-59.00800000000163</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="I93" s="20" t="s">
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="I93" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
@@ -15927,10 +17665,10 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="14" t="s">
+      <c r="M94" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N94" s="14" t="s">
+      <c r="N94" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O94" s="1" t="s">
@@ -15938,13 +17676,13 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="10">
+      <c r="B95" s="5">
         <v>0.25493025779724099</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="3">
         <v>0.28723311424255299</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="3">
         <v>0.27320339679717998</v>
       </c>
       <c r="E95" s="3">
@@ -15953,34 +17691,34 @@
       <c r="G95" s="1">
         <v>100</v>
       </c>
-      <c r="I95" s="15">
+      <c r="I95">
         <v>2.4649999999999902E-3</v>
       </c>
-      <c r="J95" s="15">
+      <c r="J95">
         <v>4.9509999999999997E-3</v>
       </c>
-      <c r="K95" s="15">
+      <c r="K95">
         <v>3.8084999999999998E-3</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="11">
         <v>9147</v>
       </c>
-      <c r="N95" s="13">
+      <c r="N95" s="11">
         <v>9147</v>
       </c>
-      <c r="O95" s="13">
+      <c r="O95" s="11">
         <f>N95-M95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B96" s="12">
+      <c r="B96" s="10">
         <v>0.53955602645874001</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="3">
         <v>0.76289057731628396</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="3">
         <v>0.64319126605987498</v>
       </c>
       <c r="E96" s="3">
@@ -15989,34 +17727,34 @@
       <c r="G96" s="1">
         <v>200</v>
       </c>
-      <c r="I96" s="15">
+      <c r="I96">
         <v>5.0989999999999898E-3</v>
       </c>
-      <c r="J96" s="15">
+      <c r="J96">
         <v>5.4510000000000001E-3</v>
       </c>
-      <c r="K96" s="15">
+      <c r="K96">
         <v>5.3028999999999897E-3</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="11">
         <v>11238</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N96" s="11">
         <v>11238</v>
       </c>
-      <c r="O96" s="13">
+      <c r="O96" s="11">
         <f t="shared" ref="O96:O97" si="2">N96-M96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="10">
+      <c r="B97" s="5">
         <v>6.9353382587432799</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="3">
         <v>7.7478840351104701</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="3">
         <v>7.4723199844360302</v>
       </c>
       <c r="E97" s="3">
@@ -16025,88 +17763,88 @@
       <c r="G97" s="1">
         <v>500</v>
       </c>
-      <c r="I97" s="15">
+      <c r="I97">
         <v>5.2709999999999996E-3</v>
       </c>
-      <c r="J97" s="15">
+      <c r="J97">
         <v>5.6179999999999997E-3</v>
       </c>
-      <c r="K97" s="15">
+      <c r="K97">
         <v>5.4547999999999897E-3</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="11">
         <v>28857</v>
       </c>
-      <c r="N97" s="13">
+      <c r="N97" s="11">
         <v>28857</v>
       </c>
-      <c r="O97" s="13">
+      <c r="O97" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="19"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="I122" s="20" t="s">
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="I122" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
@@ -16133,10 +17871,10 @@
       <c r="K123" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M123" s="14" t="s">
+      <c r="M123" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N123" s="14" t="s">
+      <c r="N123" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O123" s="1" t="s">
@@ -16144,13 +17882,13 @@
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B124" s="10">
+      <c r="B124" s="5">
         <v>0.47091841697692799</v>
       </c>
-      <c r="C124" s="11">
+      <c r="C124" s="3">
         <v>0.89886069297790505</v>
       </c>
-      <c r="D124" s="11">
+      <c r="D124" s="3">
         <v>0.72365944385528502</v>
       </c>
       <c r="E124" s="3">
@@ -16159,34 +17897,34 @@
       <c r="G124" s="1">
         <v>100</v>
       </c>
-      <c r="I124" s="15">
+      <c r="I124">
         <v>1.499196</v>
       </c>
-      <c r="J124" s="15">
+      <c r="J124">
         <v>1.5242279999999999</v>
       </c>
-      <c r="K124" s="15">
+      <c r="K124">
         <v>1.5217011</v>
       </c>
-      <c r="M124" s="13">
+      <c r="M124" s="11">
         <v>9147</v>
       </c>
-      <c r="N124" s="13">
+      <c r="N124" s="11">
         <v>9147</v>
       </c>
-      <c r="O124" s="13">
+      <c r="O124" s="11">
         <f>N124-M124</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B125" s="12">
+      <c r="B125" s="10">
         <v>4.0871846675872803</v>
       </c>
-      <c r="C125" s="11">
+      <c r="C125" s="3">
         <v>5.1869688034057599</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D125" s="3">
         <v>4.6584871530532803</v>
       </c>
       <c r="E125" s="3">
@@ -16195,34 +17933,34 @@
       <c r="G125" s="1">
         <v>200</v>
       </c>
-      <c r="I125" s="15">
+      <c r="I125">
         <v>12.9967329999999</v>
       </c>
-      <c r="J125" s="15">
+      <c r="J125">
         <v>13.022209999999999</v>
       </c>
-      <c r="K125" s="15">
+      <c r="K125">
         <v>13.0195443</v>
       </c>
-      <c r="M125" s="13">
+      <c r="M125" s="11">
         <v>11238</v>
       </c>
-      <c r="N125" s="13">
+      <c r="N125" s="11">
         <v>11238</v>
       </c>
-      <c r="O125" s="13">
+      <c r="O125" s="11">
         <f t="shared" ref="O125:O126" si="3">N125-M125</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B126" s="10">
+      <c r="B126" s="5">
         <v>47.200309038162203</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="3">
         <v>56.9156332015991</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="3">
         <v>51.060949611663801</v>
       </c>
       <c r="E126" s="3">
@@ -16231,88 +17969,88 @@
       <c r="G126" s="1">
         <v>500</v>
       </c>
-      <c r="I126" s="15">
+      <c r="I126">
         <v>116.913196</v>
       </c>
-      <c r="J126" s="15">
+      <c r="J126">
         <v>116.938617999999</v>
       </c>
-      <c r="K126" s="15">
+      <c r="K126">
         <v>116.9359863</v>
       </c>
-      <c r="M126" s="13">
+      <c r="M126" s="11">
         <v>28857</v>
       </c>
-      <c r="N126" s="13">
+      <c r="N126" s="11">
         <v>28857</v>
       </c>
-      <c r="O126" s="13">
+      <c r="O126" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="19"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+      <c r="N149" s="17"/>
+      <c r="O149" s="17"/>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
+      <c r="O150" s="17"/>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="I154" s="20" t="s">
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="I154" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
@@ -16339,10 +18077,10 @@
       <c r="K155" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M155" s="14" t="s">
+      <c r="M155" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N155" s="14" t="s">
+      <c r="N155" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O155" s="1" t="s">
@@ -16350,13 +18088,13 @@
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B156" s="10">
+      <c r="B156" s="5">
         <v>0.28623509407043402</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C156" s="3">
         <v>0.59891247749328602</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="3">
         <v>0.43862853050231898</v>
       </c>
       <c r="E156" s="3">
@@ -16365,34 +18103,34 @@
       <c r="G156" s="1">
         <v>100</v>
       </c>
-      <c r="I156" s="15">
+      <c r="I156">
         <v>5.1339999999999997E-3</v>
       </c>
-      <c r="J156" s="15">
+      <c r="J156">
         <v>8.0520000000000001E-3</v>
       </c>
-      <c r="K156" s="15">
+      <c r="K156">
         <v>5.4698999999999998E-3</v>
       </c>
-      <c r="M156" s="13">
+      <c r="M156" s="11">
         <v>1829</v>
       </c>
-      <c r="N156" s="13">
+      <c r="N156" s="11">
         <v>9147</v>
       </c>
-      <c r="O156" s="13">
+      <c r="O156" s="11">
         <f>N156-M156</f>
         <v>7318</v>
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B157" s="12">
+      <c r="B157" s="10">
         <v>0.54551911354064897</v>
       </c>
-      <c r="C157" s="11">
+      <c r="C157" s="3">
         <v>0.66044425964355402</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="3">
         <v>0.58974308967590305</v>
       </c>
       <c r="E157" s="3">
@@ -16401,34 +18139,34 @@
       <c r="G157" s="1">
         <v>200</v>
       </c>
-      <c r="I157" s="15">
+      <c r="I157">
         <v>7.8219999999999904E-3</v>
       </c>
-      <c r="J157" s="15">
+      <c r="J157">
         <v>1.17E-2</v>
       </c>
-      <c r="K157" s="15">
+      <c r="K157">
         <v>8.2847999999999897E-3</v>
       </c>
-      <c r="M157" s="13">
+      <c r="M157" s="11">
         <v>4500</v>
       </c>
-      <c r="N157" s="13">
+      <c r="N157" s="11">
         <v>11238</v>
       </c>
-      <c r="O157" s="13">
+      <c r="O157" s="11">
         <f>N157-M157</f>
         <v>6738</v>
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B158" s="10">
+      <c r="B158" s="5">
         <v>6.7386291027069003</v>
       </c>
-      <c r="C158" s="11">
+      <c r="C158" s="3">
         <v>9.1304512023925692</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="3">
         <v>7.5179193973541203</v>
       </c>
       <c r="E158" s="3">
@@ -16437,91 +18175,91 @@
       <c r="G158" s="1">
         <v>500</v>
       </c>
-      <c r="I158" s="15">
+      <c r="I158">
         <v>7.9959999999999996E-3</v>
       </c>
-      <c r="J158" s="15">
+      <c r="J158">
         <v>1.1812E-2</v>
       </c>
-      <c r="K158" s="15">
+      <c r="K158">
         <v>8.4160999999999993E-3</v>
       </c>
-      <c r="M158" s="13">
+      <c r="M158" s="11">
         <v>28890</v>
       </c>
-      <c r="N158" s="13">
+      <c r="N158" s="11">
         <v>28857</v>
       </c>
-      <c r="O158" s="13">
+      <c r="O158" s="11">
         <f>N158-M158</f>
         <v>-33</v>
       </c>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B177" s="19" t="s">
+      <c r="B177" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="17"/>
+      <c r="O178" s="17"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-      <c r="O179" s="19"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
+      <c r="N179" s="17"/>
+      <c r="O179" s="17"/>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C181" s="20"/>
-      <c r="D181" s="20"/>
-      <c r="E181" s="20"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
       <c r="G181" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J181" s="20"/>
-      <c r="K181" s="20"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="16"/>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
@@ -16625,67 +18363,67 @@
       </c>
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B206" s="19" t="s">
+      <c r="B206" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C206" s="19"/>
-      <c r="D206" s="19"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="19"/>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="19"/>
-      <c r="K206" s="19"/>
-      <c r="L206" s="19"/>
-      <c r="M206" s="19"/>
-      <c r="N206" s="19"/>
-      <c r="O206" s="19"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="17"/>
+      <c r="N206" s="17"/>
+      <c r="O206" s="17"/>
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B207" s="19"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="19"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="19"/>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="19"/>
-      <c r="K207" s="19"/>
-      <c r="L207" s="19"/>
-      <c r="M207" s="19"/>
-      <c r="N207" s="19"/>
-      <c r="O207" s="19"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
+      <c r="L207" s="17"/>
+      <c r="M207" s="17"/>
+      <c r="N207" s="17"/>
+      <c r="O207" s="17"/>
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B208" s="19"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="19"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="19"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="19"/>
-      <c r="K208" s="19"/>
-      <c r="L208" s="19"/>
-      <c r="M208" s="19"/>
-      <c r="N208" s="19"/>
-      <c r="O208" s="19"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="17"/>
+      <c r="L208" s="17"/>
+      <c r="M208" s="17"/>
+      <c r="N208" s="17"/>
+      <c r="O208" s="17"/>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B210" s="20" t="s">
+      <c r="B210" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C210" s="20"/>
-      <c r="D210" s="20"/>
-      <c r="E210" s="20"/>
-      <c r="I210" s="20" t="s">
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="I210" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J210" s="20"/>
-      <c r="K210" s="20"/>
+      <c r="J210" s="16"/>
+      <c r="K210" s="16"/>
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
@@ -16712,10 +18450,10 @@
       <c r="K211" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M211" s="14" t="s">
+      <c r="M211" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N211" s="14" t="s">
+      <c r="N211" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O211" s="1" t="s">
@@ -16723,13 +18461,13 @@
       </c>
     </row>
     <row r="212" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B212" s="10">
+      <c r="B212" s="5">
         <v>3.9825439453125E-3</v>
       </c>
-      <c r="C212" s="11">
+      <c r="C212" s="3">
         <v>9.9799633026122995E-3</v>
       </c>
-      <c r="D212" s="11">
+      <c r="D212" s="3">
         <v>6.9436550140380797E-3</v>
       </c>
       <c r="E212" s="3">
@@ -16738,34 +18476,34 @@
       <c r="G212" s="1">
         <v>100</v>
       </c>
-      <c r="I212" s="15">
+      <c r="I212">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J212" s="15">
+      <c r="J212">
         <v>5.90399999999999E-3</v>
       </c>
-      <c r="K212" s="15">
+      <c r="K212">
         <v>2.9951999999999999E-3</v>
       </c>
-      <c r="M212" s="13">
+      <c r="M212" s="11">
         <v>2983</v>
       </c>
-      <c r="N212" s="13">
+      <c r="N212" s="11">
         <v>9147</v>
       </c>
-      <c r="O212" s="13">
+      <c r="O212" s="11">
         <f>N212-M212</f>
         <v>6164</v>
       </c>
     </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B213" s="12">
+      <c r="B213" s="10">
         <v>5.9838294982910104E-3</v>
       </c>
-      <c r="C213" s="11">
+      <c r="C213" s="3">
         <v>8.9747905731201102E-3</v>
       </c>
-      <c r="D213" s="11">
+      <c r="D213" s="3">
         <v>7.4799299240112301E-3</v>
       </c>
       <c r="E213" s="3">
@@ -16774,34 +18512,34 @@
       <c r="G213" s="1">
         <v>200</v>
       </c>
-      <c r="I213" s="15">
+      <c r="I213">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J213" s="15">
+      <c r="J213">
         <v>5.90399999999999E-3</v>
       </c>
-      <c r="K213" s="15">
+      <c r="K213">
         <v>2.9951999999999999E-3</v>
       </c>
-      <c r="M213" s="13">
+      <c r="M213" s="11">
         <v>4544</v>
       </c>
-      <c r="N213" s="13">
+      <c r="N213" s="11">
         <v>11238</v>
       </c>
-      <c r="O213" s="13">
+      <c r="O213" s="11">
         <f t="shared" ref="O213:O214" si="4">N213-M213</f>
         <v>6694</v>
       </c>
     </row>
     <row r="214" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B214" s="10">
+      <c r="B214" s="5">
         <v>1.8946886062622001E-2</v>
       </c>
-      <c r="C214" s="11">
+      <c r="C214" s="3">
         <v>2.1942138671875E-2</v>
       </c>
-      <c r="D214" s="11">
+      <c r="D214" s="3">
         <v>2.01466560363769E-2</v>
       </c>
       <c r="E214" s="3">
@@ -16810,88 +18548,88 @@
       <c r="G214" s="1">
         <v>500</v>
       </c>
-      <c r="I214" s="15">
+      <c r="I214">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J214" s="15">
+      <c r="J214">
         <v>5.90399999999999E-3</v>
       </c>
-      <c r="K214" s="15">
+      <c r="K214">
         <v>2.9951999999999999E-3</v>
       </c>
-      <c r="M214" s="13">
+      <c r="M214" s="11">
         <v>9952</v>
       </c>
-      <c r="N214" s="13">
+      <c r="N214" s="11">
         <v>28857</v>
       </c>
-      <c r="O214" s="13">
+      <c r="O214" s="11">
         <f t="shared" si="4"/>
         <v>18905</v>
       </c>
     </row>
     <row r="236" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B236" s="19" t="s">
+      <c r="B236" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="19"/>
-      <c r="D236" s="19"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="19"/>
-      <c r="G236" s="19"/>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="19"/>
-      <c r="K236" s="19"/>
-      <c r="L236" s="19"/>
-      <c r="M236" s="19"/>
-      <c r="N236" s="19"/>
-      <c r="O236" s="19"/>
+      <c r="C236" s="17"/>
+      <c r="D236" s="17"/>
+      <c r="E236" s="17"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="17"/>
+      <c r="H236" s="17"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="17"/>
+      <c r="L236" s="17"/>
+      <c r="M236" s="17"/>
+      <c r="N236" s="17"/>
+      <c r="O236" s="17"/>
     </row>
     <row r="237" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B237" s="19"/>
-      <c r="C237" s="19"/>
-      <c r="D237" s="19"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="19"/>
-      <c r="G237" s="19"/>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="19"/>
-      <c r="K237" s="19"/>
-      <c r="L237" s="19"/>
-      <c r="M237" s="19"/>
-      <c r="N237" s="19"/>
-      <c r="O237" s="19"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="17"/>
+      <c r="L237" s="17"/>
+      <c r="M237" s="17"/>
+      <c r="N237" s="17"/>
+      <c r="O237" s="17"/>
     </row>
     <row r="238" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B238" s="19"/>
-      <c r="C238" s="19"/>
-      <c r="D238" s="19"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="19"/>
-      <c r="G238" s="19"/>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="19"/>
-      <c r="K238" s="19"/>
-      <c r="L238" s="19"/>
-      <c r="M238" s="19"/>
-      <c r="N238" s="19"/>
-      <c r="O238" s="19"/>
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="17"/>
+      <c r="L238" s="17"/>
+      <c r="M238" s="17"/>
+      <c r="N238" s="17"/>
+      <c r="O238" s="17"/>
     </row>
     <row r="240" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B240" s="20" t="s">
+      <c r="B240" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C240" s="20"/>
-      <c r="D240" s="20"/>
-      <c r="E240" s="20"/>
-      <c r="I240" s="20" t="s">
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="16"/>
+      <c r="I240" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J240" s="20"/>
-      <c r="K240" s="20"/>
+      <c r="J240" s="16"/>
+      <c r="K240" s="16"/>
     </row>
     <row r="241" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
@@ -16918,10 +18656,10 @@
       <c r="K241" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M241" s="14" t="s">
+      <c r="M241" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N241" s="14" t="s">
+      <c r="N241" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O241" s="1" t="s">
@@ -16929,13 +18667,13 @@
       </c>
     </row>
     <row r="242" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B242" s="10">
+      <c r="B242" s="5">
         <v>2.9919147491455E-3</v>
       </c>
-      <c r="C242" s="11">
+      <c r="C242" s="3">
         <v>9.5424652099609306E-3</v>
       </c>
-      <c r="D242" s="11">
+      <c r="D242" s="3">
         <v>4.8979759216308504E-3</v>
       </c>
       <c r="E242" s="3">
@@ -16944,34 +18682,34 @@
       <c r="G242" s="1">
         <v>100</v>
       </c>
-      <c r="I242" s="15">
+      <c r="I242">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J242" s="15">
+      <c r="J242">
         <v>4.1440000000000001E-3</v>
       </c>
-      <c r="K242" s="15">
+      <c r="K242">
         <v>2.8192E-3</v>
       </c>
-      <c r="M242" s="13">
+      <c r="M242" s="11">
         <v>2515</v>
       </c>
-      <c r="N242" s="13">
+      <c r="N242" s="11">
         <v>9147</v>
       </c>
-      <c r="O242" s="13">
+      <c r="O242" s="11">
         <f>N242-M242</f>
         <v>6632</v>
       </c>
     </row>
     <row r="243" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B243" s="12">
+      <c r="B243" s="10">
         <v>5.9835910797119097E-3</v>
       </c>
-      <c r="C243" s="11">
+      <c r="C243" s="3">
         <v>7.9798698425292899E-3</v>
       </c>
-      <c r="D243" s="11">
+      <c r="D243" s="3">
         <v>7.2803974151611304E-3</v>
       </c>
       <c r="E243" s="3">
@@ -16980,34 +18718,34 @@
       <c r="G243" s="1">
         <v>200</v>
       </c>
-      <c r="I243" s="15">
+      <c r="I243">
         <v>2.48E-3</v>
       </c>
-      <c r="J243" s="15">
+      <c r="J243">
         <v>1.0170999999999999E-2</v>
       </c>
-      <c r="K243" s="15">
+      <c r="K243">
         <v>3.6603E-3</v>
       </c>
-      <c r="M243" s="13">
+      <c r="M243" s="11">
         <v>3285</v>
       </c>
-      <c r="N243" s="13">
+      <c r="N243" s="11">
         <v>11238</v>
       </c>
-      <c r="O243" s="13">
+      <c r="O243" s="11">
         <f t="shared" ref="O243:O244" si="5">N243-M243</f>
         <v>7953</v>
       </c>
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B244" s="10">
+      <c r="B244" s="5">
         <v>1.7953157424926699E-2</v>
       </c>
-      <c r="C244" s="11">
+      <c r="C244" s="3">
         <v>2.7925491333007799E-2</v>
       </c>
-      <c r="D244" s="11">
+      <c r="D244" s="3">
         <v>2.06456184387207E-2</v>
       </c>
       <c r="E244" s="3">
@@ -17016,88 +18754,88 @@
       <c r="G244" s="1">
         <v>500</v>
       </c>
-      <c r="I244" s="15">
+      <c r="I244">
         <v>2.6080000000000001E-3</v>
       </c>
-      <c r="J244" s="15">
+      <c r="J244">
         <v>1.0411E-2</v>
       </c>
-      <c r="K244" s="15">
+      <c r="K244">
         <v>3.4394999999999998E-3</v>
       </c>
-      <c r="M244" s="13">
+      <c r="M244" s="11">
         <v>7936</v>
       </c>
-      <c r="N244" s="13">
+      <c r="N244" s="11">
         <v>28857</v>
       </c>
-      <c r="O244" s="13">
+      <c r="O244" s="11">
         <f t="shared" si="5"/>
         <v>20921</v>
       </c>
     </row>
     <row r="267" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B267" s="19" t="s">
+      <c r="B267" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="19"/>
-      <c r="D267" s="19"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="19"/>
-      <c r="G267" s="19"/>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="19"/>
-      <c r="K267" s="19"/>
-      <c r="L267" s="19"/>
-      <c r="M267" s="19"/>
-      <c r="N267" s="19"/>
-      <c r="O267" s="19"/>
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
+      <c r="H267" s="17"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+      <c r="M267" s="17"/>
+      <c r="N267" s="17"/>
+      <c r="O267" s="17"/>
     </row>
     <row r="268" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B268" s="19"/>
-      <c r="C268" s="19"/>
-      <c r="D268" s="19"/>
-      <c r="E268" s="19"/>
-      <c r="F268" s="19"/>
-      <c r="G268" s="19"/>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="19"/>
-      <c r="K268" s="19"/>
-      <c r="L268" s="19"/>
-      <c r="M268" s="19"/>
-      <c r="N268" s="19"/>
-      <c r="O268" s="19"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="17"/>
+      <c r="F268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="17"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
+      <c r="M268" s="17"/>
+      <c r="N268" s="17"/>
+      <c r="O268" s="17"/>
     </row>
     <row r="269" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B269" s="19"/>
-      <c r="C269" s="19"/>
-      <c r="D269" s="19"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="19"/>
-      <c r="G269" s="19"/>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="19"/>
-      <c r="K269" s="19"/>
-      <c r="L269" s="19"/>
-      <c r="M269" s="19"/>
-      <c r="N269" s="19"/>
-      <c r="O269" s="19"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="17"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+      <c r="M269" s="17"/>
+      <c r="N269" s="17"/>
+      <c r="O269" s="17"/>
     </row>
     <row r="271" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B271" s="20" t="s">
+      <c r="B271" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C271" s="20"/>
-      <c r="D271" s="20"/>
-      <c r="E271" s="20"/>
-      <c r="I271" s="20" t="s">
+      <c r="C271" s="16"/>
+      <c r="D271" s="16"/>
+      <c r="E271" s="16"/>
+      <c r="I271" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J271" s="20"/>
-      <c r="K271" s="20"/>
+      <c r="J271" s="16"/>
+      <c r="K271" s="16"/>
     </row>
     <row r="272" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
@@ -17124,10 +18862,10 @@
       <c r="K272" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M272" s="14" t="s">
+      <c r="M272" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N272" s="14" t="s">
+      <c r="N272" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O272" s="1" t="s">
@@ -17135,13 +18873,13 @@
       </c>
     </row>
     <row r="273" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B273" s="10">
+      <c r="B273" s="5">
         <v>3.9896965026855399E-3</v>
       </c>
-      <c r="C273" s="11">
+      <c r="C273" s="3">
         <v>3.5052061080932603E-2</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="3">
         <v>8.8111400604247991E-3</v>
       </c>
       <c r="E273" s="3">
@@ -17150,7 +18888,7 @@
       <c r="G273" s="1">
         <v>100</v>
       </c>
-      <c r="I273" s="15">
+      <c r="I273">
         <v>0</v>
       </c>
       <c r="J273" s="4">
@@ -17159,25 +18897,25 @@
       <c r="K273" s="4">
         <v>2.8E-5</v>
       </c>
-      <c r="M273" s="13">
+      <c r="M273" s="11">
         <v>324</v>
       </c>
-      <c r="N273" s="13">
+      <c r="N273" s="11">
         <v>9147</v>
       </c>
-      <c r="O273" s="13">
+      <c r="O273" s="11">
         <f>N273-M273</f>
         <v>8823</v>
       </c>
     </row>
     <row r="274" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B274" s="12">
+      <c r="B274" s="10">
         <v>1.19671821594238E-2</v>
       </c>
-      <c r="C274" s="11">
+      <c r="C274" s="3">
         <v>1.6954898834228498E-2</v>
       </c>
-      <c r="D274" s="11">
+      <c r="D274" s="3">
         <v>1.3863182067871E-2</v>
       </c>
       <c r="E274" s="3">
@@ -17186,7 +18924,7 @@
       <c r="G274" s="1">
         <v>200</v>
       </c>
-      <c r="I274" s="15">
+      <c r="I274">
         <v>0</v>
       </c>
       <c r="J274" s="4">
@@ -17195,25 +18933,25 @@
       <c r="K274" s="4">
         <v>2.5199999999999999E-5</v>
       </c>
-      <c r="M274" s="13">
+      <c r="M274" s="11">
         <v>479</v>
       </c>
-      <c r="N274" s="13">
+      <c r="N274" s="11">
         <v>11238</v>
       </c>
-      <c r="O274" s="13">
+      <c r="O274" s="11">
         <f t="shared" ref="O274:O275" si="6">N274-M274</f>
         <v>10759</v>
       </c>
     </row>
     <row r="275" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B275" s="10">
+      <c r="B275" s="5">
         <v>0.17256689071655201</v>
       </c>
-      <c r="C275" s="11">
+      <c r="C275" s="3">
         <v>0.18752670288085899</v>
       </c>
-      <c r="D275" s="11">
+      <c r="D275" s="3">
         <v>0.17892448902130101</v>
       </c>
       <c r="E275" s="3">
@@ -17225,72 +18963,72 @@
       <c r="I275" s="4">
         <v>2.8E-5</v>
       </c>
-      <c r="J275" s="15">
+      <c r="J275">
         <v>6.8399999999999895E-4</v>
       </c>
-      <c r="K275" s="15">
+      <c r="K275">
         <v>5.2240000000000001E-4</v>
       </c>
-      <c r="M275" s="13">
+      <c r="M275" s="11">
         <v>1363</v>
       </c>
-      <c r="N275" s="13">
+      <c r="N275" s="11">
         <v>28857</v>
       </c>
-      <c r="O275" s="13">
+      <c r="O275" s="11">
         <f t="shared" si="6"/>
         <v>27494</v>
       </c>
     </row>
     <row r="303" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B303" s="19" t="s">
+      <c r="B303" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C303" s="19"/>
-      <c r="D303" s="19"/>
-      <c r="E303" s="19"/>
-      <c r="F303" s="19"/>
-      <c r="G303" s="19"/>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="19"/>
-      <c r="K303" s="19"/>
-      <c r="L303" s="19"/>
-      <c r="M303" s="19"/>
-      <c r="N303" s="19"/>
-      <c r="O303" s="19"/>
+      <c r="C303" s="17"/>
+      <c r="D303" s="17"/>
+      <c r="E303" s="17"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="17"/>
+      <c r="H303" s="17"/>
+      <c r="I303" s="17"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="17"/>
+      <c r="L303" s="17"/>
+      <c r="M303" s="17"/>
+      <c r="N303" s="17"/>
+      <c r="O303" s="17"/>
     </row>
     <row r="304" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B304" s="19"/>
-      <c r="C304" s="19"/>
-      <c r="D304" s="19"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="19"/>
-      <c r="G304" s="19"/>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="19"/>
-      <c r="K304" s="19"/>
-      <c r="L304" s="19"/>
-      <c r="M304" s="19"/>
-      <c r="N304" s="19"/>
-      <c r="O304" s="19"/>
+      <c r="B304" s="17"/>
+      <c r="C304" s="17"/>
+      <c r="D304" s="17"/>
+      <c r="E304" s="17"/>
+      <c r="F304" s="17"/>
+      <c r="G304" s="17"/>
+      <c r="H304" s="17"/>
+      <c r="I304" s="17"/>
+      <c r="J304" s="17"/>
+      <c r="K304" s="17"/>
+      <c r="L304" s="17"/>
+      <c r="M304" s="17"/>
+      <c r="N304" s="17"/>
+      <c r="O304" s="17"/>
     </row>
     <row r="305" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B305" s="19"/>
-      <c r="C305" s="19"/>
-      <c r="D305" s="19"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="19"/>
-      <c r="G305" s="19"/>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="19"/>
-      <c r="K305" s="19"/>
-      <c r="L305" s="19"/>
-      <c r="M305" s="19"/>
-      <c r="N305" s="19"/>
-      <c r="O305" s="19"/>
+      <c r="B305" s="17"/>
+      <c r="C305" s="17"/>
+      <c r="D305" s="17"/>
+      <c r="E305" s="17"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="17"/>
+      <c r="H305" s="17"/>
+      <c r="I305" s="17"/>
+      <c r="J305" s="17"/>
+      <c r="K305" s="17"/>
+      <c r="L305" s="17"/>
+      <c r="M305" s="17"/>
+      <c r="N305" s="17"/>
+      <c r="O305" s="17"/>
     </row>
     <row r="310" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
@@ -17298,7 +19036,7 @@
       </c>
     </row>
     <row r="311" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C311" s="16">
+      <c r="C311" s="13">
         <v>2543</v>
       </c>
     </row>
@@ -17314,7 +19052,7 @@
       <c r="B315" t="s">
         <v>20</v>
       </c>
-      <c r="C315" s="17">
+      <c r="C315" s="14">
         <v>0.151593923568725</v>
       </c>
     </row>
@@ -17322,7 +19060,7 @@
       <c r="B316" t="s">
         <v>21</v>
       </c>
-      <c r="C316" s="17">
+      <c r="C316" s="14">
         <v>9.9618434906005799E-4</v>
       </c>
     </row>
@@ -17330,7 +19068,7 @@
       <c r="B317" t="s">
         <v>23</v>
       </c>
-      <c r="C317" s="17">
+      <c r="C317" s="14">
         <v>7.4723199844360302</v>
       </c>
     </row>
@@ -17338,7 +19076,7 @@
       <c r="B318" t="s">
         <v>24</v>
       </c>
-      <c r="C318" s="11">
+      <c r="C318" s="3">
         <v>51.060949611663801</v>
       </c>
     </row>
@@ -17346,7 +19084,7 @@
       <c r="B319" t="s">
         <v>25</v>
       </c>
-      <c r="C319" s="11">
+      <c r="C319" s="3">
         <v>7.5179193973541203</v>
       </c>
     </row>
@@ -17354,7 +19092,7 @@
       <c r="B320" t="s">
         <v>14</v>
       </c>
-      <c r="C320" s="11">
+      <c r="C320" s="3">
         <v>2.01466560363769E-2</v>
       </c>
     </row>
@@ -17362,7 +19100,7 @@
       <c r="B321" t="s">
         <v>15</v>
       </c>
-      <c r="C321" s="11">
+      <c r="C321" s="3">
         <v>2.06456184387207E-2</v>
       </c>
     </row>
@@ -17370,59 +19108,59 @@
       <c r="B322" t="s">
         <v>26</v>
       </c>
-      <c r="C322" s="11">
+      <c r="C322" s="3">
         <v>0.17892448902130101</v>
       </c>
     </row>
     <row r="336" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B336" s="19" t="s">
+      <c r="B336" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C336" s="19"/>
-      <c r="D336" s="19"/>
-      <c r="E336" s="19"/>
-      <c r="F336" s="19"/>
-      <c r="G336" s="19"/>
-      <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="19"/>
-      <c r="K336" s="19"/>
-      <c r="L336" s="19"/>
-      <c r="M336" s="19"/>
-      <c r="N336" s="19"/>
-      <c r="O336" s="19"/>
+      <c r="C336" s="17"/>
+      <c r="D336" s="17"/>
+      <c r="E336" s="17"/>
+      <c r="F336" s="17"/>
+      <c r="G336" s="17"/>
+      <c r="H336" s="17"/>
+      <c r="I336" s="17"/>
+      <c r="J336" s="17"/>
+      <c r="K336" s="17"/>
+      <c r="L336" s="17"/>
+      <c r="M336" s="17"/>
+      <c r="N336" s="17"/>
+      <c r="O336" s="17"/>
     </row>
     <row r="337" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B337" s="19"/>
-      <c r="C337" s="19"/>
-      <c r="D337" s="19"/>
-      <c r="E337" s="19"/>
-      <c r="F337" s="19"/>
-      <c r="G337" s="19"/>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="19"/>
-      <c r="K337" s="19"/>
-      <c r="L337" s="19"/>
-      <c r="M337" s="19"/>
-      <c r="N337" s="19"/>
-      <c r="O337" s="19"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="17"/>
+      <c r="D337" s="17"/>
+      <c r="E337" s="17"/>
+      <c r="F337" s="17"/>
+      <c r="G337" s="17"/>
+      <c r="H337" s="17"/>
+      <c r="I337" s="17"/>
+      <c r="J337" s="17"/>
+      <c r="K337" s="17"/>
+      <c r="L337" s="17"/>
+      <c r="M337" s="17"/>
+      <c r="N337" s="17"/>
+      <c r="O337" s="17"/>
     </row>
     <row r="338" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B338" s="19"/>
-      <c r="C338" s="19"/>
-      <c r="D338" s="19"/>
-      <c r="E338" s="19"/>
-      <c r="F338" s="19"/>
-      <c r="G338" s="19"/>
-      <c r="H338" s="19"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="19"/>
-      <c r="K338" s="19"/>
-      <c r="L338" s="19"/>
-      <c r="M338" s="19"/>
-      <c r="N338" s="19"/>
-      <c r="O338" s="19"/>
+      <c r="B338" s="17"/>
+      <c r="C338" s="17"/>
+      <c r="D338" s="17"/>
+      <c r="E338" s="17"/>
+      <c r="F338" s="17"/>
+      <c r="G338" s="17"/>
+      <c r="H338" s="17"/>
+      <c r="I338" s="17"/>
+      <c r="J338" s="17"/>
+      <c r="K338" s="17"/>
+      <c r="L338" s="17"/>
+      <c r="M338" s="17"/>
+      <c r="N338" s="17"/>
+      <c r="O338" s="17"/>
     </row>
     <row r="345" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
@@ -17436,7 +19174,7 @@
       <c r="B346" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C346" s="13">
+      <c r="C346" s="11">
         <v>1649</v>
       </c>
     </row>
@@ -17444,7 +19182,7 @@
       <c r="B347" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C347" s="13">
+      <c r="C347" s="11">
         <v>28916.008000000002</v>
       </c>
     </row>
@@ -17452,7 +19190,7 @@
       <c r="B348" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C348" s="13">
+      <c r="C348" s="11">
         <v>28857</v>
       </c>
     </row>
@@ -17460,7 +19198,7 @@
       <c r="B349" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C349" s="13">
+      <c r="C349" s="11">
         <v>28857</v>
       </c>
     </row>
@@ -17468,7 +19206,7 @@
       <c r="B350" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C350" s="13">
+      <c r="C350" s="11">
         <v>28890</v>
       </c>
     </row>
@@ -17476,7 +19214,7 @@
       <c r="B351" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C351" s="13">
+      <c r="C351" s="11">
         <v>9952</v>
       </c>
     </row>
@@ -17484,15 +19222,15 @@
       <c r="B352" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C352" s="13">
+      <c r="C352" s="11">
         <v>7936</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="18" t="s">
+      <c r="B353" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C353" s="13">
+      <c r="C353" s="11">
         <v>1363</v>
       </c>
     </row>
@@ -17500,12 +19238,78 @@
       <c r="B354" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C354" s="13">
+      <c r="C354" s="11">
         <v>28857</v>
       </c>
+    </row>
+    <row r="371" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B371" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C371" s="17"/>
+      <c r="D371" s="17"/>
+      <c r="E371" s="17"/>
+      <c r="F371" s="17"/>
+      <c r="G371" s="17"/>
+      <c r="H371" s="17"/>
+      <c r="I371" s="17"/>
+      <c r="J371" s="17"/>
+      <c r="K371" s="17"/>
+      <c r="L371" s="17"/>
+      <c r="M371" s="17"/>
+      <c r="N371" s="17"/>
+      <c r="O371" s="17"/>
+    </row>
+    <row r="372" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B372" s="17"/>
+      <c r="C372" s="17"/>
+      <c r="D372" s="17"/>
+      <c r="E372" s="17"/>
+      <c r="F372" s="17"/>
+      <c r="G372" s="17"/>
+      <c r="H372" s="17"/>
+      <c r="I372" s="17"/>
+      <c r="J372" s="17"/>
+      <c r="K372" s="17"/>
+      <c r="L372" s="17"/>
+      <c r="M372" s="17"/>
+      <c r="N372" s="17"/>
+      <c r="O372" s="17"/>
+    </row>
+    <row r="373" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B373" s="17"/>
+      <c r="C373" s="17"/>
+      <c r="D373" s="17"/>
+      <c r="E373" s="17"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17"/>
+      <c r="H373" s="17"/>
+      <c r="I373" s="17"/>
+      <c r="J373" s="17"/>
+      <c r="K373" s="17"/>
+      <c r="L373" s="17"/>
+      <c r="M373" s="17"/>
+      <c r="N373" s="17"/>
+      <c r="O373" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B371:O373"/>
+    <mergeCell ref="B177:O179"/>
+    <mergeCell ref="B206:O208"/>
+    <mergeCell ref="B236:O238"/>
+    <mergeCell ref="B267:O269"/>
+    <mergeCell ref="B303:O305"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="I181:K181"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="I210:K210"/>
+    <mergeCell ref="B336:O338"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="I240:K240"/>
+    <mergeCell ref="B271:E271"/>
+    <mergeCell ref="I271:K271"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B32:E32"/>
@@ -17516,27 +19320,12 @@
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="B93:E93"/>
     <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B336:O338"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="I240:K240"/>
-    <mergeCell ref="B271:E271"/>
-    <mergeCell ref="I271:K271"/>
-    <mergeCell ref="B177:O179"/>
-    <mergeCell ref="B206:O208"/>
-    <mergeCell ref="B236:O238"/>
-    <mergeCell ref="B267:O269"/>
-    <mergeCell ref="B303:O305"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="I181:K181"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
     <mergeCell ref="B28:O30"/>
     <mergeCell ref="B58:O60"/>
     <mergeCell ref="B89:O91"/>
     <mergeCell ref="B118:O120"/>
     <mergeCell ref="B148:O150"/>
     <mergeCell ref="B122:E122"/>
-    <mergeCell ref="I122:K122"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
